--- a/PES/Office salaries/April Salary Sheet New (2024).xlsx
+++ b/PES/Office salaries/April Salary Sheet New (2024).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\PES\Office salaries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BED8A413-023B-4B6B-B062-6D869014A1FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2F96EFE-D62A-4E73-A2C5-FEE17EE6D8CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="824" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2038,7 +2038,7 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="450">
+  <cellXfs count="451">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -3164,6 +3164,9 @@
     <xf numFmtId="0" fontId="60" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -3187,6 +3190,12 @@
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="4" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="17" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3244,12 +3253,6 @@
     </xf>
     <xf numFmtId="165" fontId="54" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="17" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="4" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3735,8 +3738,8 @@
   <dimension ref="A1:X139"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U22" sqref="U22"/>
+      <pane ySplit="3" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q87" sqref="Q87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9399,8 +9402,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AC862"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A565" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="K590" sqref="K590"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -9439,15 +9442,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="C1" s="421" t="s">
+      <c r="C1" s="422" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="421"/>
-      <c r="E1" s="421"/>
-      <c r="F1" s="421"/>
-      <c r="G1" s="421"/>
-      <c r="H1" s="421"/>
-      <c r="I1" s="421"/>
+      <c r="D1" s="422"/>
+      <c r="E1" s="422"/>
+      <c r="F1" s="422"/>
+      <c r="G1" s="422"/>
+      <c r="H1" s="422"/>
+      <c r="I1" s="422"/>
       <c r="J1" s="269" t="s">
         <v>45</v>
       </c>
@@ -37592,8 +37595,10 @@
       <c r="F590" s="268"/>
       <c r="G590" s="268"/>
       <c r="H590" s="268"/>
-      <c r="I590" s="406"/>
-      <c r="J590" s="406"/>
+      <c r="I590" s="421">
+        <v>5820</v>
+      </c>
+      <c r="J590" s="421"/>
       <c r="K590" s="352"/>
       <c r="L590" s="284"/>
       <c r="N590" s="35"/>
@@ -47168,20 +47173,20 @@
       <c r="Z795" s="27"/>
     </row>
     <row r="796" spans="1:27" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A796" s="422" t="s">
+      <c r="A796" s="423" t="s">
         <v>38</v>
       </c>
-      <c r="B796" s="423"/>
-      <c r="C796" s="423"/>
-      <c r="D796" s="423"/>
-      <c r="E796" s="423"/>
-      <c r="F796" s="423"/>
-      <c r="G796" s="423"/>
-      <c r="H796" s="423"/>
-      <c r="I796" s="423"/>
-      <c r="J796" s="423"/>
-      <c r="K796" s="423"/>
-      <c r="L796" s="424"/>
+      <c r="B796" s="424"/>
+      <c r="C796" s="424"/>
+      <c r="D796" s="424"/>
+      <c r="E796" s="424"/>
+      <c r="F796" s="424"/>
+      <c r="G796" s="424"/>
+      <c r="H796" s="424"/>
+      <c r="I796" s="424"/>
+      <c r="J796" s="424"/>
+      <c r="K796" s="424"/>
+      <c r="L796" s="425"/>
       <c r="M796" s="24"/>
       <c r="N796" s="28"/>
       <c r="O796" s="387" t="s">
@@ -48666,20 +48671,20 @@
       <c r="Z827" s="27"/>
     </row>
     <row r="828" spans="1:27" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A828" s="425" t="s">
+      <c r="A828" s="426" t="s">
         <v>38</v>
       </c>
-      <c r="B828" s="426"/>
-      <c r="C828" s="426"/>
-      <c r="D828" s="426"/>
-      <c r="E828" s="426"/>
-      <c r="F828" s="426"/>
-      <c r="G828" s="426"/>
-      <c r="H828" s="426"/>
-      <c r="I828" s="426"/>
-      <c r="J828" s="426"/>
-      <c r="K828" s="426"/>
-      <c r="L828" s="427"/>
+      <c r="B828" s="427"/>
+      <c r="C828" s="427"/>
+      <c r="D828" s="427"/>
+      <c r="E828" s="427"/>
+      <c r="F828" s="427"/>
+      <c r="G828" s="427"/>
+      <c r="H828" s="427"/>
+      <c r="I828" s="427"/>
+      <c r="J828" s="427"/>
+      <c r="K828" s="427"/>
+      <c r="L828" s="428"/>
       <c r="M828" s="24"/>
       <c r="N828" s="28"/>
       <c r="O828" s="387" t="s">
@@ -50305,26 +50310,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="428" t="s">
+      <c r="A1" s="429" t="s">
         <v>134</v>
       </c>
-      <c r="B1" s="428"/>
-      <c r="C1" s="428"/>
-      <c r="D1" s="428"/>
-      <c r="E1" s="428"/>
-      <c r="F1" s="428"/>
-      <c r="G1" s="428"/>
-      <c r="H1" s="428"/>
-      <c r="I1" s="428"/>
-      <c r="J1" s="428"/>
-      <c r="K1" s="428"/>
-      <c r="L1" s="428"/>
-      <c r="M1" s="428"/>
-      <c r="N1" s="428"/>
-      <c r="O1" s="428"/>
-      <c r="P1" s="428"/>
-      <c r="Q1" s="428"/>
-      <c r="R1" s="428"/>
+      <c r="B1" s="429"/>
+      <c r="C1" s="429"/>
+      <c r="D1" s="429"/>
+      <c r="E1" s="429"/>
+      <c r="F1" s="429"/>
+      <c r="G1" s="429"/>
+      <c r="H1" s="429"/>
+      <c r="I1" s="429"/>
+      <c r="J1" s="429"/>
+      <c r="K1" s="429"/>
+      <c r="L1" s="429"/>
+      <c r="M1" s="429"/>
+      <c r="N1" s="429"/>
+      <c r="O1" s="429"/>
+      <c r="P1" s="429"/>
+      <c r="Q1" s="429"/>
+      <c r="R1" s="429"/>
     </row>
     <row r="2" spans="1:26" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="104" t="s">
@@ -51284,13 +51289,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="428" t="s">
+      <c r="A1" s="429" t="s">
         <v>170</v>
       </c>
-      <c r="B1" s="428"/>
-      <c r="C1" s="428"/>
-      <c r="D1" s="428"/>
-      <c r="E1" s="428"/>
+      <c r="B1" s="429"/>
+      <c r="C1" s="429"/>
+      <c r="D1" s="429"/>
+      <c r="E1" s="429"/>
     </row>
     <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="250" t="s">
@@ -51311,7 +51316,7 @@
       <c r="A3" s="108" t="s">
         <v>123</v>
       </c>
-      <c r="B3" s="434" t="s">
+      <c r="B3" s="437" t="s">
         <v>189</v>
       </c>
       <c r="C3" s="252">
@@ -51329,7 +51334,7 @@
       <c r="A4" s="108" t="s">
         <v>136</v>
       </c>
-      <c r="B4" s="435"/>
+      <c r="B4" s="438"/>
       <c r="C4" s="252">
         <v>25000</v>
       </c>
@@ -51345,7 +51350,7 @@
       <c r="A5" s="108" t="s">
         <v>188</v>
       </c>
-      <c r="B5" s="435"/>
+      <c r="B5" s="438"/>
       <c r="C5" s="252">
         <v>32500</v>
       </c>
@@ -51361,7 +51366,7 @@
       <c r="A6" s="108" t="s">
         <v>165</v>
       </c>
-      <c r="B6" s="436"/>
+      <c r="B6" s="439"/>
       <c r="C6" s="252">
         <v>21000</v>
       </c>
@@ -51377,7 +51382,7 @@
       <c r="A7" s="108" t="s">
         <v>171</v>
       </c>
-      <c r="B7" s="446" t="s">
+      <c r="B7" s="449" t="s">
         <v>177</v>
       </c>
       <c r="C7" s="111">
@@ -51395,7 +51400,7 @@
       <c r="A8" s="109" t="s">
         <v>172</v>
       </c>
-      <c r="B8" s="447"/>
+      <c r="B8" s="450"/>
       <c r="C8" s="112">
         <v>55000</v>
       </c>
@@ -51411,7 +51416,7 @@
       <c r="A9" s="107" t="s">
         <v>75</v>
       </c>
-      <c r="B9" s="447"/>
+      <c r="B9" s="450"/>
       <c r="C9" s="112">
         <v>30000</v>
       </c>
@@ -51427,7 +51432,7 @@
       <c r="A10" s="107" t="s">
         <v>173</v>
       </c>
-      <c r="B10" s="447"/>
+      <c r="B10" s="450"/>
       <c r="C10" s="112">
         <v>38000</v>
       </c>
@@ -51443,7 +51448,7 @@
       <c r="A11" s="107" t="s">
         <v>174</v>
       </c>
-      <c r="B11" s="447"/>
+      <c r="B11" s="450"/>
       <c r="C11" s="112">
         <v>28000</v>
       </c>
@@ -51459,7 +51464,7 @@
       <c r="A12" s="107" t="s">
         <v>175</v>
       </c>
-      <c r="B12" s="447"/>
+      <c r="B12" s="450"/>
       <c r="C12" s="112">
         <v>22000</v>
       </c>
@@ -51475,7 +51480,7 @@
       <c r="A13" s="107" t="s">
         <v>176</v>
       </c>
-      <c r="B13" s="447"/>
+      <c r="B13" s="450"/>
       <c r="C13" s="112">
         <v>24000</v>
       </c>
@@ -51491,7 +51496,7 @@
       <c r="A14" s="262" t="s">
         <v>71</v>
       </c>
-      <c r="B14" s="447"/>
+      <c r="B14" s="450"/>
       <c r="C14" s="263">
         <v>27000</v>
       </c>
@@ -51507,7 +51512,7 @@
       <c r="A15" s="264" t="s">
         <v>182</v>
       </c>
-      <c r="B15" s="433" t="s">
+      <c r="B15" s="436" t="s">
         <v>181</v>
       </c>
       <c r="C15" s="265">
@@ -51525,7 +51530,7 @@
       <c r="A16" s="266" t="s">
         <v>183</v>
       </c>
-      <c r="B16" s="433"/>
+      <c r="B16" s="436"/>
       <c r="C16" s="265">
         <v>27500</v>
       </c>
@@ -51541,7 +51546,7 @@
       <c r="A17" s="264" t="s">
         <v>184</v>
       </c>
-      <c r="B17" s="433"/>
+      <c r="B17" s="436"/>
       <c r="C17" s="265">
         <v>22500</v>
       </c>
@@ -51557,7 +51562,7 @@
       <c r="A18" s="264" t="s">
         <v>185</v>
       </c>
-      <c r="B18" s="433"/>
+      <c r="B18" s="436"/>
       <c r="C18" s="265">
         <v>22500</v>
       </c>
@@ -51573,7 +51578,7 @@
       <c r="A19" s="264" t="s">
         <v>72</v>
       </c>
-      <c r="B19" s="437">
+      <c r="B19" s="440">
         <v>45017</v>
       </c>
       <c r="C19" s="265">
@@ -51591,7 +51596,7 @@
       <c r="A20" s="264" t="s">
         <v>186</v>
       </c>
-      <c r="B20" s="437"/>
+      <c r="B20" s="440"/>
       <c r="C20" s="265">
         <v>19000</v>
       </c>
@@ -51607,7 +51612,7 @@
       <c r="A21" s="264" t="s">
         <v>140</v>
       </c>
-      <c r="B21" s="437"/>
+      <c r="B21" s="440"/>
       <c r="C21" s="265">
         <v>47000</v>
       </c>
@@ -51641,7 +51646,7 @@
       <c r="A23" s="264" t="s">
         <v>123</v>
       </c>
-      <c r="B23" s="445" t="s">
+      <c r="B23" s="448" t="s">
         <v>198</v>
       </c>
       <c r="C23" s="265">
@@ -51659,7 +51664,7 @@
       <c r="A24" s="264" t="s">
         <v>136</v>
       </c>
-      <c r="B24" s="445"/>
+      <c r="B24" s="448"/>
       <c r="C24" s="265">
         <v>27000</v>
       </c>
@@ -51675,7 +51680,7 @@
       <c r="A25" s="264" t="s">
         <v>188</v>
       </c>
-      <c r="B25" s="445"/>
+      <c r="B25" s="448"/>
       <c r="C25" s="265">
         <v>34500</v>
       </c>
@@ -51691,7 +51696,7 @@
       <c r="A26" s="264" t="s">
         <v>165</v>
       </c>
-      <c r="B26" s="445"/>
+      <c r="B26" s="448"/>
       <c r="C26" s="265">
         <v>22000</v>
       </c>
@@ -51707,7 +51712,7 @@
       <c r="A27" s="264" t="s">
         <v>172</v>
       </c>
-      <c r="B27" s="442" t="s">
+      <c r="B27" s="445" t="s">
         <v>206</v>
       </c>
       <c r="C27" s="265">
@@ -51725,7 +51730,7 @@
       <c r="A28" s="264" t="s">
         <v>102</v>
       </c>
-      <c r="B28" s="443"/>
+      <c r="B28" s="446"/>
       <c r="C28" s="265">
         <v>25000</v>
       </c>
@@ -51741,7 +51746,7 @@
       <c r="A29" s="264" t="s">
         <v>71</v>
       </c>
-      <c r="B29" s="443"/>
+      <c r="B29" s="446"/>
       <c r="C29" s="265">
         <v>30000</v>
       </c>
@@ -51757,7 +51762,7 @@
       <c r="A30" s="264" t="s">
         <v>72</v>
       </c>
-      <c r="B30" s="444"/>
+      <c r="B30" s="447"/>
       <c r="C30" s="265">
         <v>50000</v>
       </c>
@@ -51773,7 +51778,7 @@
       <c r="A31" s="313" t="s">
         <v>210</v>
       </c>
-      <c r="B31" s="439" t="s">
+      <c r="B31" s="442" t="s">
         <v>208</v>
       </c>
       <c r="C31" s="314">
@@ -51791,7 +51796,7 @@
       <c r="A32" s="313" t="s">
         <v>163</v>
       </c>
-      <c r="B32" s="440"/>
+      <c r="B32" s="443"/>
       <c r="C32" s="314">
         <v>38000</v>
       </c>
@@ -51807,7 +51812,7 @@
       <c r="A33" s="313" t="s">
         <v>209</v>
       </c>
-      <c r="B33" s="440"/>
+      <c r="B33" s="443"/>
       <c r="C33" s="314">
         <v>45000</v>
       </c>
@@ -51823,7 +51828,7 @@
       <c r="A34" s="313" t="s">
         <v>211</v>
       </c>
-      <c r="B34" s="440"/>
+      <c r="B34" s="443"/>
       <c r="C34" s="314">
         <v>32000</v>
       </c>
@@ -51839,7 +51844,7 @@
       <c r="A35" s="313" t="s">
         <v>212</v>
       </c>
-      <c r="B35" s="440"/>
+      <c r="B35" s="443"/>
       <c r="C35" s="314">
         <v>23000</v>
       </c>
@@ -51855,7 +51860,7 @@
       <c r="A36" s="313" t="s">
         <v>161</v>
       </c>
-      <c r="B36" s="440"/>
+      <c r="B36" s="443"/>
       <c r="C36" s="314">
         <v>22000</v>
       </c>
@@ -51871,7 +51876,7 @@
       <c r="A37" s="264" t="s">
         <v>193</v>
       </c>
-      <c r="B37" s="440"/>
+      <c r="B37" s="443"/>
       <c r="C37" s="265">
         <v>30000</v>
       </c>
@@ -51887,7 +51892,7 @@
       <c r="A38" s="266" t="s">
         <v>183</v>
       </c>
-      <c r="B38" s="440"/>
+      <c r="B38" s="443"/>
       <c r="C38" s="265">
         <v>29500</v>
       </c>
@@ -51903,7 +51908,7 @@
       <c r="A39" s="264" t="s">
         <v>184</v>
       </c>
-      <c r="B39" s="440"/>
+      <c r="B39" s="443"/>
       <c r="C39" s="265">
         <v>24500</v>
       </c>
@@ -51919,7 +51924,7 @@
       <c r="A40" s="264" t="s">
         <v>185</v>
       </c>
-      <c r="B40" s="441"/>
+      <c r="B40" s="444"/>
       <c r="C40" s="265">
         <v>24500</v>
       </c>
@@ -51935,7 +51940,7 @@
       <c r="A41" s="264" t="s">
         <v>172</v>
       </c>
-      <c r="B41" s="432">
+      <c r="B41" s="435">
         <v>45231</v>
       </c>
       <c r="C41" s="265">
@@ -51953,7 +51958,7 @@
       <c r="A42" s="264" t="s">
         <v>169</v>
       </c>
-      <c r="B42" s="438"/>
+      <c r="B42" s="441"/>
       <c r="C42" s="265">
         <v>65000</v>
       </c>
@@ -51969,7 +51974,7 @@
       <c r="A43" s="264" t="s">
         <v>215</v>
       </c>
-      <c r="B43" s="432">
+      <c r="B43" s="435">
         <v>45231</v>
       </c>
       <c r="C43" s="265">
@@ -51987,7 +51992,7 @@
       <c r="A44" s="264" t="s">
         <v>216</v>
       </c>
-      <c r="B44" s="432"/>
+      <c r="B44" s="435"/>
       <c r="C44" s="265">
         <v>27000</v>
       </c>
@@ -52004,7 +52009,7 @@
       <c r="A45" s="264" t="s">
         <v>73</v>
       </c>
-      <c r="B45" s="432"/>
+      <c r="B45" s="435"/>
       <c r="C45" s="265">
         <v>20000</v>
       </c>
@@ -52021,7 +52026,7 @@
       <c r="A46" s="264" t="s">
         <v>217</v>
       </c>
-      <c r="B46" s="432"/>
+      <c r="B46" s="435"/>
       <c r="C46" s="265">
         <v>21000</v>
       </c>
@@ -52038,7 +52043,7 @@
       <c r="A47" s="264" t="s">
         <v>186</v>
       </c>
-      <c r="B47" s="432"/>
+      <c r="B47" s="435"/>
       <c r="C47" s="265">
         <v>22000</v>
       </c>
@@ -52055,7 +52060,7 @@
       <c r="A48" s="264" t="s">
         <v>211</v>
       </c>
-      <c r="B48" s="429">
+      <c r="B48" s="432">
         <v>45292</v>
       </c>
       <c r="C48" s="314">
@@ -52074,7 +52079,7 @@
       <c r="A49" s="264" t="s">
         <v>220</v>
       </c>
-      <c r="B49" s="431"/>
+      <c r="B49" s="434"/>
       <c r="C49" s="314">
         <v>35000</v>
       </c>
@@ -52090,7 +52095,7 @@
       <c r="A50" s="264" t="s">
         <v>221</v>
       </c>
-      <c r="B50" s="431"/>
+      <c r="B50" s="434"/>
       <c r="C50" s="314">
         <v>35000</v>
       </c>
@@ -52106,7 +52111,7 @@
       <c r="A51" s="264" t="s">
         <v>222</v>
       </c>
-      <c r="B51" s="431"/>
+      <c r="B51" s="434"/>
       <c r="C51" s="314">
         <v>25000</v>
       </c>
@@ -52122,7 +52127,7 @@
       <c r="A52" s="313" t="s">
         <v>233</v>
       </c>
-      <c r="B52" s="429">
+      <c r="B52" s="432">
         <v>45292</v>
       </c>
       <c r="C52" s="314">
@@ -52140,7 +52145,7 @@
       <c r="A53" s="313" t="s">
         <v>199</v>
       </c>
-      <c r="B53" s="430"/>
+      <c r="B53" s="433"/>
       <c r="C53" s="314">
         <v>45000</v>
       </c>
@@ -52156,7 +52161,7 @@
       <c r="A54" s="313" t="s">
         <v>74</v>
       </c>
-      <c r="B54" s="430"/>
+      <c r="B54" s="433"/>
       <c r="C54" s="314">
         <v>35000</v>
       </c>
@@ -52172,7 +52177,7 @@
       <c r="A55" s="264" t="s">
         <v>234</v>
       </c>
-      <c r="B55" s="448">
+      <c r="B55" s="430">
         <v>45383</v>
       </c>
       <c r="C55" s="265">
@@ -52190,7 +52195,7 @@
       <c r="A56" s="264" t="s">
         <v>235</v>
       </c>
-      <c r="B56" s="449"/>
+      <c r="B56" s="431"/>
       <c r="C56" s="265">
         <v>40000</v>
       </c>
@@ -52206,7 +52211,7 @@
       <c r="A57" s="264" t="s">
         <v>236</v>
       </c>
-      <c r="B57" s="449"/>
+      <c r="B57" s="431"/>
       <c r="C57" s="265">
         <v>60000</v>
       </c>
@@ -52222,7 +52227,7 @@
       <c r="A58" s="313" t="s">
         <v>238</v>
       </c>
-      <c r="B58" s="449"/>
+      <c r="B58" s="431"/>
       <c r="C58" s="314">
         <v>60000</v>
       </c>
@@ -52237,6 +52242,7 @@
   </sheetData>
   <autoFilter ref="A2:E2" xr:uid="{69971A69-1AB5-4F7A-A4C2-73A1E09F711B}"/>
   <mergeCells count="13">
+    <mergeCell ref="B55:B58"/>
     <mergeCell ref="B52:B54"/>
     <mergeCell ref="B48:B51"/>
     <mergeCell ref="B43:B47"/>
@@ -52249,7 +52255,6 @@
     <mergeCell ref="B27:B30"/>
     <mergeCell ref="B23:B26"/>
     <mergeCell ref="B7:B14"/>
-    <mergeCell ref="B55:B58"/>
   </mergeCells>
   <phoneticPr fontId="52" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
